--- a/data-raw/R2R_add_upper_san_joaquin/data-raw/Hydraulically Suitable Habitat Results 4-3-2015.xlsx
+++ b/data-raw/R2R_add_upper_san_joaquin/data-raw/Hydraulically Suitable Habitat Results 4-3-2015.xlsx
@@ -1,23 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_ED70E67C7A04175D2CE90F739F7F6CF9B7128C30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/R2R/DSMhabitat/data-raw/R2R_add_upper_san_joaquin/data-raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217DFA83-64CC-034F-8ED9-FAAF3BAE8FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="20115" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22280" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>SJRRP Habitat Analysis Results</t>
   </si>
@@ -98,13 +113,16 @@
   </si>
   <si>
     <t>* Reach 5 assumes Reach 4B2 fractional suitability</t>
+  </si>
+  <si>
+    <t>flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +142,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,26 +312,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -323,11 +339,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,6 +373,915 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ASH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$19:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$19:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22C1-1840-8F5A-33B49FA8800F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="690685487"/>
+        <c:axId val="701649247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="690685487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701649247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="701649247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690685487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245B1236-B1AC-5920-F819-E0C280BE6378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,77 +1608,77 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A11" s="11" t="s">
+    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="H11" t="s">
         <v>6</v>
       </c>
@@ -748,21 +1686,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
       <c r="H12" t="s">
         <v>12</v>
       </c>
@@ -770,10 +1708,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
@@ -790,7 +1728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -816,7 +1754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -836,7 +1774,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -856,7 +1794,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -876,7 +1814,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -895,8 +1833,14 @@
       <c r="F18" s="9">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -913,38 +1857,79 @@
       <c r="F19" s="9">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A22" s="11" t="s">
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f>AVERAGE(B14:B19)</f>
+        <v>1305</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E14:E19)</f>
+        <v>990</v>
+      </c>
+      <c r="I20">
+        <f>B20</f>
+        <v>1305</v>
+      </c>
+      <c r="J20">
+        <f>E20</f>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f>B31</f>
+        <v>2283</v>
+      </c>
+      <c r="J21">
+        <f>E31</f>
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="14" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="I22">
+        <f>B42</f>
+        <v>3753</v>
+      </c>
+      <c r="J22">
+        <f>E42</f>
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
@@ -955,7 +1940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -975,7 +1960,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -995,7 +1980,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1015,7 +2000,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +2020,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +2040,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1073,45 +2058,49 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="B31">
+        <f>AVERAGE(B25:B30)</f>
+        <v>2283</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E25:E30)</f>
+        <v>1361</v>
+      </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="11" t="s">
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="14" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="15"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="6" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +2111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1142,7 +2131,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1162,7 +2151,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -1182,7 +2171,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -1202,7 +2191,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -1222,7 +2211,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -1240,32 +2229,45 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="25">
+        <f>AVERAGE(B36:B41)</f>
+        <v>3753</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25">
+        <f>SUM(E36:E41)</f>
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1275,7 +2277,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1287,7 +2289,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
